--- a/石田関係/クモ仕様書 UI関係追加.xlsx
+++ b/石田関係/クモ仕様書 UI関係追加.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" tabRatio="793" firstSheet="14" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" tabRatio="793" firstSheet="10" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="5" r:id="rId1"/>
@@ -26,9 +26,10 @@
     <sheet name="ボーナスキャラ(蝶)" sheetId="38" r:id="rId17"/>
     <sheet name="回避アクション " sheetId="24" r:id="rId18"/>
     <sheet name="UI" sheetId="12" r:id="rId19"/>
-    <sheet name="操作説明" sheetId="14" r:id="rId20"/>
-    <sheet name="AI" sheetId="21" r:id="rId21"/>
-    <sheet name="リザルト" sheetId="39" r:id="rId22"/>
+    <sheet name="シーン遷移" sheetId="43" r:id="rId20"/>
+    <sheet name="操作説明" sheetId="14" r:id="rId21"/>
+    <sheet name="AI" sheetId="21" r:id="rId22"/>
+    <sheet name="リザルト" sheetId="39" r:id="rId23"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="332">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -7148,6 +7149,114 @@
     </rPh>
     <rPh sb="52" eb="53">
       <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル→セレクトへ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルからセレクトに移行する時、タイトル時のカメラを移動させセレクト時のスタート地点でのカメラに移動させる</t>
+    <rPh sb="11" eb="13">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージはバイオ6のセレクト画面</t>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セレクト→ゲーム画面へ</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.5秒間でフェードアウトしその後1秒間でフェードインしてゲーム画面</t>
+    <rPh sb="3" eb="5">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム画面→リザルト画面へ</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIMEUPの表示が消えて1秒後、フェードをかけてリザルト画面</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ビョウゴ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その時にScene移動はない</t>
+    <rPh sb="2" eb="3">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラをリゼルトの位置に瞬間移動させる</t>
+    <rPh sb="9" eb="11">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュンカン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -27495,7 +27604,7 @@
   </sheetPr>
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
@@ -28143,7 +28252,7 @@
   </sheetPr>
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -28365,6 +28474,70 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
+  <dimension ref="A3:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28535,7 +28708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -28672,15 +28845,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
